--- a/db/scenes_seeds.xlsx
+++ b/db/scenes_seeds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="283" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -26,10 +26,10 @@
     <t>scenery</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Stimmung</t>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>mood</t>
   </si>
   <si>
     <t>Wer will was?</t>
@@ -38,6 +38,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>casino</t>
   </si>
   <si>
@@ -50,9 +53,18 @@
     <t>Vince will Frau nicht verlassen. Deloris möchte die Beziehung nur weiter pflegen, wenn Vince seine Frau verlässt.</t>
   </si>
   <si>
+    <t>eine </t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>Gangster treffen auf Ernie und machen ihn fertig.</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t>Gangster wollen in der Gruppe stark sein.</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>Deloris will Showbiz verlassen. Erhält Geschenk.</t>
   </si>
   <si>
@@ -71,9 +86,15 @@
     <t>hässig, Wendepunkt.</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>gangsterbüro</t>
   </si>
   <si>
@@ -86,29 +107,126 @@
     <t>Vince will Deloris. Gangster wollen Sicherheit. Showgirls abschöberle.</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>draussen</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>kirche</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>kloster</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
     <t>schule</t>
   </si>
   <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>ritas_zimmer</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="#" numFmtId="165"/>
     <numFmt formatCode="0" numFmtId="166"/>
+    <numFmt formatCode="@" numFmtId="167"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -176,11 +294,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -199,18 +327,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B:B"/>
+      <selection activeCell="D33" activeCellId="0" pane="topLeft" sqref="D33"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.1294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
@@ -240,475 +369,479 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>4</v>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>5</v>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>6</v>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>9</v>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>12.1</v>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>12.2</v>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>12.3</v>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>12.4</v>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>13</v>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>14</v>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>15</v>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>16</v>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>17</v>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>18</v>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>19</v>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>20</v>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>21</v>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>22</v>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="27">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>23</v>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>24</v>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>25</v>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>26</v>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>27</v>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="32">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>28</v>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>29</v>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="34">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>30</v>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="35">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>31</v>
+      <c r="B35" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="36">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>32</v>
+      <c r="B36" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="37">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>33</v>
+      <c r="B37" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>34</v>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="39">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>35</v>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>